--- a/medicine/Pharmacie/Ivacaftor/Ivacaftor.xlsx
+++ b/medicine/Pharmacie/Ivacaftor/Ivacaftor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elexacaftor/tezacaftor/ivacaftor, vendu sous les noms commerciaux Trikafta (États-Unis) ou Kaftrio (UE), est une association médicamenteuse à dose fixe utilisée pour traiter la mucoviscidose[1],[2]
-. Elexacaftor/tezacaftor/ivacaftor est une combinaison d'ivacaftor, un ouvreur de canal chlorure, d'elexacaftor (en) et de tezacaftor (en), des modulateurs CFTR[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elexacaftor/tezacaftor/ivacaftor, vendu sous les noms commerciaux Trikafta (États-Unis) ou Kaftrio (UE), est une association médicamenteuse à dose fixe utilisée pour traiter la mucoviscidose,
+. Elexacaftor/tezacaftor/ivacaftor est une combinaison d'ivacaftor, un ouvreur de canal chlorure, d'elexacaftor (en) et de tezacaftor (en), des modulateurs CFTR.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association est indiquée pour le traitement des personnes âgées de six ans et plus atteintes de mucoviscidose avec une mutation F508del ou d'autres mutations du gène CFTR[1],[3]. Son utilisation est approuvée aux États-Unis[1], au Canada[4], dans l'Union européenne[2] et en Australie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association est indiquée pour le traitement des personnes âgées de six ans et plus atteintes de mucoviscidose avec une mutation F508del ou d'autres mutations du gène CFTR,. Son utilisation est approuvée aux États-Unis, au Canada, dans l'Union européenne et en Australie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables les plus fréquents affectant plus de 5 % des patients sont des maux de tête, des infections des voies respiratoires supérieures, des douleurs abdominales, des diarrhées, des éruptions cutanées, l'augmentation de l'alanine aminotransférase, la congestion nasale, l'augmentation de la créatine phosphokinase sanguine, l'augmentation de l'aspartate aminotransférase, la rhinorrhée, la rhinite, la grippe, la sinusite et l'augmentation de la bilirubine sanguine[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables les plus fréquents affectant plus de 5 % des patients sont des maux de tête, des infections des voies respiratoires supérieures, des douleurs abdominales, des diarrhées, des éruptions cutanées, l'augmentation de l'alanine aminotransférase, la congestion nasale, l'augmentation de la créatine phosphokinase sanguine, l'augmentation de l'aspartate aminotransférase, la rhinorrhée, la rhinite, la grippe, la sinusite et l'augmentation de la bilirubine sanguine,.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association avec des inducteurs du gène CYP3A (en) est déconseillée[8],[1]. La posologie doit être ajustée avec des inhibiteurs modérés ou puissants du gène CYP3A[1],[8].
-D'autres médicaments présentent un potentiel d'interaction : la warfarine, la digoxine, les statines, le glyburide, le natéglinide, le répaglinide[1],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association avec des inducteurs du gène CYP3A (en) est déconseillée,. La posologie doit être ajustée avec des inhibiteurs modérés ou puissants du gène CYP3A,.
+D'autres médicaments présentent un potentiel d'interaction : la warfarine, la digoxine, les statines, le glyburide, le natéglinide, le répaglinide,.
 </t>
         </is>
       </c>
